--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3176138.571044151</v>
+        <v>3173886.491332944</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>105.4771979831543</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>97.03085908134926</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>87.5991692023178</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>65.30371978353459</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>371.41760116251</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>142.679692963795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.96411613815231</v>
+        <v>159.5199829376698</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>295.3683824677685</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>14.42881909501704</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>12.61028049873698</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695527</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>14.9215867835839</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>130.5513683573767</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>40.53421095546966</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428256</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.32649042089668</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>116.4636264596498</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569541</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>178.8757728051409</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>92.58181139165723</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>48.85497112745768</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057945</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>141.4513012076585</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>123.9815576456779</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,22 +4325,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4349,31 +4349,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136265</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>3215.315153136265</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2841.849394875185</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2451.710062899373</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>617.5020034330385</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="C4" t="n">
-        <v>617.5020034330385</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="D4" t="n">
-        <v>617.5020034330385</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="E4" t="n">
-        <v>469.5889098506453</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F4" t="n">
-        <v>322.698962352735</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G4" t="n">
-        <v>154.9961257274539</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>154.9961257274539</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W4" t="n">
-        <v>845.4915543310558</v>
+        <v>1158.775828293787</v>
       </c>
       <c r="X4" t="n">
-        <v>617.5020034330385</v>
+        <v>930.7862773957697</v>
       </c>
       <c r="Y4" t="n">
-        <v>617.5020034330385</v>
+        <v>709.9936982522396</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1611.504630229388</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C5" t="n">
-        <v>1242.542113288977</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="D5" t="n">
-        <v>1242.542113288977</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="E5" t="n">
-        <v>856.7538606907324</v>
+        <v>557.1590183167823</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>550.2135175675788</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269322</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2388.243802269322</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1998.10447029351</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>331.5406302391191</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="C7" t="n">
-        <v>331.5406302391191</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D7" t="n">
-        <v>331.5406302391191</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4753,22 +4753,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>874.0013006945865</v>
       </c>
       <c r="Y7" t="n">
-        <v>331.5406302391191</v>
+        <v>712.8700047979503</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1561.900772669911</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1561.900772669911</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1203.635074063161</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>817.8468214649167</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8609166753092</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,37 +4817,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3311.03125686673</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3057.500780140566</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>3057.500780140566</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645723</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.900772669911</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>646.6939999491682</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>867.4865790926983</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>646.6939999491682</v>
       </c>
     </row>
     <row r="11">
@@ -5027,19 +5027,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075802</v>
@@ -5048,7 +5048,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5063,13 +5063,13 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,13 +5215,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,37 +5288,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>417.7969033733018</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,16 +5510,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5531,7 +5531,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5546,7 +5546,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>449.4852666057155</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>449.4852666057155</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>449.4852666057155</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438167</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121652</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121652</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121652</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121652</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270452</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,13 +5926,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487568</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5966,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6008,19 +6008,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,19 +6060,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
         <v>680.0291294438176</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282754</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458823</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,7 +6221,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6239,10 +6239,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852254</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,13 +6303,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
         <v>680.0291294438176</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832228</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C28" t="n">
-        <v>634.9279362553159</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134625</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="29">
@@ -6455,25 +6455,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,28 +6482,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
     <row r="32">
@@ -6680,10 +6680,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6692,7 +6692,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
@@ -6701,19 +6701,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,16 +6774,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
         <v>680.0291294438176</v>
@@ -6835,22 +6835,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,19 +7008,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>639.6425904082686</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7138,7 +7138,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>821.2910552385083</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,19 +7546,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>63.3683537222866</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>130.4994612393473</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>34.97276993489211</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>105.8997516910995</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219413</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>125.5054897610406</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>32.15184655856254</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>39.70888054695388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>118.3918499711702</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>124.5310997715153</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>84.25835418137865</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26020,25 +26020,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>24.63391537253442</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>716012.3781689527</v>
+        <v>716012.3781689525</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>716012.3781689525</v>
+        <v>716012.3781689527</v>
       </c>
     </row>
     <row r="15">
@@ -26314,43 +26314,43 @@
         <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="F2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="J2" t="n">
         <v>706253.2747287552</v>
       </c>
-      <c r="G2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.274728755</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287555</v>
-      </c>
       <c r="K2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="L2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="L2" t="n">
-        <v>706253.2747287555</v>
-      </c>
       <c r="M2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287556</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="E4" t="n">
+        <v>10557.08828678117</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10557.08828678119</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10557.08828678118</v>
+      </c>
+      <c r="H4" t="n">
         <v>10557.08828678121</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
-      <c r="G4" t="n">
-        <v>10557.08828678119</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10557.08828678119</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10557.08828678122</v>
-      </c>
       <c r="J4" t="n">
+        <v>10557.08828678123</v>
+      </c>
+      <c r="K4" t="n">
         <v>10557.08828678126</v>
       </c>
-      <c r="K4" t="n">
-        <v>10557.08828678121</v>
-      </c>
       <c r="L4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-808011.2607158704</v>
+        <v>-808011.2607158703</v>
       </c>
       <c r="C6" t="n">
-        <v>520733.4850117223</v>
+        <v>520733.4850117222</v>
       </c>
       <c r="D6" t="n">
         <v>520733.4850117221</v>
       </c>
       <c r="E6" t="n">
-        <v>269161.1948107118</v>
+        <v>269126.4568852758</v>
       </c>
       <c r="F6" t="n">
-        <v>594573.6566180672</v>
+        <v>594538.9186926316</v>
       </c>
       <c r="G6" t="n">
-        <v>594573.6566180668</v>
+        <v>594538.9186926316</v>
       </c>
       <c r="H6" t="n">
-        <v>594573.6566180662</v>
+        <v>594538.9186926315</v>
       </c>
       <c r="I6" t="n">
-        <v>594573.6566180671</v>
+        <v>594538.9186926318</v>
       </c>
       <c r="J6" t="n">
-        <v>377042.4542207898</v>
+        <v>377007.7162953538</v>
       </c>
       <c r="K6" t="n">
-        <v>594573.6566180671</v>
+        <v>594538.9186926316</v>
       </c>
       <c r="L6" t="n">
-        <v>594573.6566180672</v>
+        <v>594538.9186926314</v>
       </c>
       <c r="M6" t="n">
-        <v>509518.6286825551</v>
+        <v>509483.8907571196</v>
       </c>
       <c r="N6" t="n">
-        <v>594573.6566180671</v>
+        <v>594538.9186926314</v>
       </c>
       <c r="O6" t="n">
-        <v>594573.6566180669</v>
+        <v>594538.9186926315</v>
       </c>
       <c r="P6" t="n">
-        <v>594573.6566180673</v>
+        <v>594538.9186926316</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>277.2566436803262</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>257.6521825393337</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>8.753251207520293</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>221.2192785530564</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>35.45844457920145</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>268.2420326896584</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>187.6205372139425</v>
+        <v>59.064670414425</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>115.5533431856849</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>189.4891510446031</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>213.0993748903002</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-4.72277020700743e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,31 +31841,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>671.2522281007809</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>181.6580975439405</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175688</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,34 +32549,34 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32792,10 +32792,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -33023,16 +33023,16 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33263,19 +33263,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33494,19 +33494,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663279</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33734,16 +33734,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,19 +33968,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>167.4835451665588</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>287.9685048518523</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,10 +34363,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>528.6559836563365</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902961</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>91.80490927281524</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,19 +37616,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>25.34951124454049</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
